--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>Create country 2</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Create a country</t>
+  </si>
+  <si>
+    <t>Create Nationality</t>
+  </si>
+  <si>
+    <t>Fee Functionality</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +144,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>Create country 2</t>
   </si>
@@ -83,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -210,6 +210,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>Create country 2</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Fee Functionality</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -232,6 +235,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
   <si>
     <t>Create country 2</t>
   </si>
@@ -86,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,7 +237,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -248,7 +248,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -259,10 +259,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -270,12 +270,78 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -13,13 +13,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="7">
+  <si>
+    <t>Login Functionality</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Create a country</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Create country</t>
+  </si>
+  <si>
+    <t>Create country 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -954,14 +980,312 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Create country 2</t>
+  </si>
+  <si>
+    <t>Create Nationality</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>Fee Functionality</t>
   </si>
 </sst>
 </file>
@@ -980,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1285,6 +1294,314 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -989,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1602,6 +1602,248 @@
         <v>2</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -989,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1844,6 +1844,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -989,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1888,6 +1888,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -989,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1910,6 +1910,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
+++ b/src/test/java/apachePOI/resources/ScenarioStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="10">
   <si>
     <t>Login Functionality</t>
   </si>
@@ -989,7 +989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1932,6 +1932,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
